--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1901.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1901.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.052340794274412</v>
+        <v>1.916864633560181</v>
       </c>
       <c r="B1">
-        <v>3.678773844319993</v>
+        <v>2.781983613967896</v>
       </c>
       <c r="C1">
-        <v>3.128058670186257</v>
+        <v>3.343796968460083</v>
       </c>
       <c r="D1">
-        <v>2.479208263337601</v>
+        <v>1.097015261650085</v>
       </c>
       <c r="E1">
-        <v>1.318569055398223</v>
+        <v>0.7066972255706787</v>
       </c>
     </row>
   </sheetData>
